--- a/Template Files/Template_ExpressionMap.xlsx
+++ b/Template Files/Template_ExpressionMap.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AD6024-A718-794F-894D-B96093A708B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA6708-AC1C-E941-AC87-64D22824EF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2380" windowWidth="24820" windowHeight="15620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="2380" windowWidth="24820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="DO NOT MODIFY!" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -28,9 +27,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>Since 0.7</t>
@@ -38,21 +37,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-Enter valid filename. The converter will use as </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Enter valid filename. The converter will use as </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>output filename</t>
@@ -60,9 +69,9 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve"> and VST </t>
@@ -71,9 +80,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>Expression Map name</t>
@@ -88,10 +97,84 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>0=Default Color</t>
+          <t xml:space="preserve">0=Default Color
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Used in supported file formats.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{8C92B736-185F-6A4E-A384-81F36650BACF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>Used in supported file formats.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{45F37043-6E95-E544-9E4A-5651547A12A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Used in supported file formats.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
         </r>
       </text>
     </comment>
@@ -100,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
   <si>
     <t>Color</t>
   </si>
@@ -529,23 +612,27 @@
   </si>
   <si>
     <t>Example - ProductName - Patchname</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Expression Map Name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Program1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Version 0.8</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Articulation Name</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PC Channel1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PC Data1</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -563,14 +650,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -592,19 +671,24 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="12">
@@ -740,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -751,10 +835,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -817,7 +901,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,6 +1056,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,12 +1325,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1252,12 +1340,14 @@
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
     <col min="4" max="5" width="17.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="10" width="10.5" style="17" customWidth="1"/>
-    <col min="11" max="1024" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1025" max="16384" width="8.83203125" style="4"/>
+    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
+    <col min="12" max="1025" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
@@ -1266,14 +1356,14 @@
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1">
+    <row r="2" spans="1:11" ht="12" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1297,11 +1387,14 @@
         <v>6</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1319,9 +1412,10 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="14"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1347,9 +1441,10 @@
         <v>23</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="14"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -1359,9 +1454,10 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="14"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1371,9 +1467,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="14"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -1383,9 +1480,10 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="14"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1395,9 +1493,10 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="14"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1407,9 +1506,10 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="14"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1419,9 +1519,10 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="14"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1431,9 +1532,10 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -1443,9 +1545,10 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="14"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -1455,9 +1558,10 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="14"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -1467,9 +1571,10 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="14"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -1479,9 +1584,10 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="14"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1491,9 +1597,10 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="14"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1503,9 +1610,10 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="14"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -1515,9 +1623,10 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="14"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -1527,9 +1636,10 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="14"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -1539,9 +1649,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="14"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -1551,9 +1662,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="14"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1563,9 +1675,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="14"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -1575,9 +1688,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="14"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1587,9 +1701,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="14"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -1599,9 +1714,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="14"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -1611,9 +1727,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="14"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -1623,9 +1740,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="14"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -1635,9 +1753,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="14"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -1647,9 +1766,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="14"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -1659,9 +1779,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="14"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -1671,9 +1792,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="14"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -1683,9 +1805,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="14"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
@@ -1695,9 +1818,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="14"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
@@ -1707,9 +1831,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="14"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
@@ -1719,9 +1844,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="14"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -1731,9 +1857,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="14"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -1743,9 +1870,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="14"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
@@ -1755,9 +1883,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="14"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -1767,9 +1896,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="14"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -1779,9 +1909,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="14"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -1791,9 +1922,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="14"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
@@ -1803,9 +1935,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="14"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -1815,9 +1948,10 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="14"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -1827,9 +1961,10 @@
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="14"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -1839,9 +1974,10 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" s="14"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -1851,9 +1987,10 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" s="14"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -1863,9 +2000,10 @@
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="14"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -1875,9 +2013,10 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="14"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -1887,9 +2026,10 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="J50" s="14"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -1899,9 +2039,10 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="J51" s="14"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -1911,9 +2052,10 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="J52" s="14"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -1923,9 +2065,10 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="J53" s="14"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -1935,9 +2078,10 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="14"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -1947,9 +2091,10 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="14"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -1959,9 +2104,10 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="14"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -1971,9 +2117,10 @@
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" s="14"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -1983,9 +2130,10 @@
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="J58" s="14"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
@@ -1995,9 +2143,10 @@
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="J59" s="14"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -2007,9 +2156,10 @@
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="14"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -2019,9 +2169,10 @@
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="14"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
@@ -2031,9 +2182,10 @@
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="14"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
@@ -2043,9 +2195,10 @@
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" s="14"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
@@ -2055,9 +2208,10 @@
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="14"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
@@ -2067,9 +2221,10 @@
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="14"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -2079,9 +2234,10 @@
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="14"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -2091,9 +2247,10 @@
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="14"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
@@ -2103,9 +2260,10 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="14"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
@@ -2115,9 +2273,10 @@
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="J69" s="14"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
@@ -2127,9 +2286,10 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="J70" s="14"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
@@ -2139,9 +2299,10 @@
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="J71" s="14"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
@@ -2151,9 +2312,10 @@
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="14"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
@@ -2163,9 +2325,10 @@
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="J73" s="14"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
@@ -2175,9 +2338,10 @@
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="14"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -2187,9 +2351,10 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="14"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
@@ -2199,9 +2364,10 @@
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="J76" s="14"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
@@ -2211,9 +2377,10 @@
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="14"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
@@ -2223,9 +2390,10 @@
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="14"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
@@ -2235,9 +2403,10 @@
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="14"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -2247,9 +2416,10 @@
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="14"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
@@ -2259,9 +2429,10 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="J81" s="14"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
@@ -2271,9 +2442,10 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="14"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
@@ -2283,9 +2455,10 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="14"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -2295,9 +2468,10 @@
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="J84" s="14"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
@@ -2307,9 +2481,10 @@
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="J85" s="14"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -2319,9 +2494,10 @@
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="J86" s="14"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -2331,9 +2507,10 @@
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="J87" s="14"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -2343,9 +2520,10 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="14"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -2355,9 +2533,10 @@
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="J89" s="14"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -2367,9 +2546,10 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="J90" s="14"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -2379,9 +2559,10 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="J91" s="14"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -2391,9 +2572,10 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="J92" s="14"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -2403,9 +2585,10 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="J93" s="14"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -2415,9 +2598,10 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="14"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -2427,9 +2611,10 @@
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95" s="14"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -2439,9 +2624,10 @@
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="J96" s="14"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
@@ -2451,9 +2637,10 @@
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="J97" s="14"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
@@ -2463,9 +2650,10 @@
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="14"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
@@ -2475,9 +2663,10 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="14"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1"/>
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
@@ -2487,9 +2676,10 @@
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="14"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
@@ -2499,9 +2689,10 @@
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="14"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
@@ -2511,9 +2702,10 @@
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="14"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
@@ -2523,9 +2715,10 @@
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="14"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
@@ -2535,9 +2728,10 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="J104" s="14"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
@@ -2547,9 +2741,10 @@
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="J105" s="14"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1"/>
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
@@ -2559,9 +2754,10 @@
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
-      <c r="J106" s="4"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="J106" s="14"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
@@ -2571,9 +2767,10 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="J107" s="14"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1"/>
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
@@ -2583,9 +2780,10 @@
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="J108" s="14"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
@@ -2595,9 +2793,10 @@
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="J109" s="14"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
@@ -2607,9 +2806,10 @@
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="J110" s="14"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
@@ -2619,9 +2819,10 @@
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="J111" s="14"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1"/>
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
@@ -2631,9 +2832,10 @@
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="J112" s="14"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="1"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
@@ -2643,9 +2845,10 @@
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="J113" s="14"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="1"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
@@ -2655,9 +2858,10 @@
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="J114" s="14"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="1"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
@@ -2667,9 +2871,10 @@
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="J115" s="14"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="1"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
@@ -2679,9 +2884,10 @@
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="J116" s="14"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
@@ -2691,9 +2897,10 @@
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="J117" s="14"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="1"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -2703,9 +2910,10 @@
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="J118" s="14"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="1"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
@@ -2715,9 +2923,10 @@
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="J119" s="14"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="1"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
@@ -2727,9 +2936,10 @@
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="J120" s="14"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="1"/>
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
@@ -2739,9 +2949,10 @@
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="J121" s="14"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="1"/>
       <c r="B122" s="14"/>
       <c r="C122" s="15"/>
@@ -2751,9 +2962,10 @@
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="J122" s="14"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="1"/>
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
@@ -2763,9 +2975,10 @@
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="J123" s="14"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="1"/>
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
@@ -2775,9 +2988,10 @@
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="J124" s="14"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="1"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
@@ -2787,9 +3001,10 @@
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="J125" s="14"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="1"/>
       <c r="B126" s="14"/>
       <c r="C126" s="15"/>
@@ -2799,9 +3014,10 @@
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="J126" s="14"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="1"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
@@ -2811,9 +3027,10 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="J127" s="14"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="1"/>
       <c r="B128" s="14"/>
       <c r="C128" s="15"/>
@@ -2823,9 +3040,10 @@
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="J128" s="14"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="1"/>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
@@ -2835,9 +3053,10 @@
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="J129" s="14"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="1"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
@@ -2847,9 +3066,10 @@
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
-      <c r="J130" s="4"/>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="J130" s="14"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
@@ -2859,13 +3079,14 @@
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
-      <c r="J131" s="4"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
@@ -2879,7 +3100,7 @@
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="I4:I131" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="I4:J131" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -2931,7 +3152,7 @@
   </sheetPr>
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -5178,7 +5399,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Template Files/Template_ExpressionMap.xlsx
+++ b/Template Files/Template_ExpressionMap.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA6708-AC1C-E941-AC87-64D22824EF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0EC7-DD4D-0945-A01C-F58B2CFC2173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2380" windowWidth="24820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="DO NOT MODIFY!" sheetId="2" r:id="rId2"/>
+    <sheet name="Ignore" sheetId="3" r:id="rId2"/>
+    <sheet name="DO NOT MODIFY!" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
@@ -136,15 +137,7 @@
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
           </rPr>
-          <t>Used in supported file formats.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Yu Gothic UI"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Used in supported file formats.
 </t>
         </r>
         <r>
@@ -182,8 +175,167 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BAF63C5F-A9EA-874B-8F54-003D3237A716}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Enter valid filename. The converter will use as </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>output filename</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve"> and VST </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2176D73D-CAF2-D647-BC56-A5EFE68D7225}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">0=Default Color
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Used in supported file formats.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{8A0777AE-2255-BE45-8FD5-21C7E75EF234}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Used in supported file formats.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{BFE784F5-5640-B94A-98B0-EA1E331E3DA2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Used in supported file formats.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>e.g. Cubase Expressionmap</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="150">
   <si>
     <t>Color</t>
   </si>
@@ -221,388 +373,7 @@
     <t>MIDI Notes</t>
   </si>
   <si>
-    <t>C#-2 (1)</t>
-  </si>
-  <si>
     <t>Attribute</t>
-  </si>
-  <si>
-    <t>D-2 (2)</t>
-  </si>
-  <si>
-    <t>D#-2 (3)</t>
-  </si>
-  <si>
-    <t>E-2 (4)</t>
-  </si>
-  <si>
-    <t>F-2 (5)</t>
-  </si>
-  <si>
-    <t>F#-2 (6)</t>
-  </si>
-  <si>
-    <t>G-2 (7)</t>
-  </si>
-  <si>
-    <t>G#-2 (8)</t>
-  </si>
-  <si>
-    <t>A-2 (9)</t>
-  </si>
-  <si>
-    <t>A#-2 (10)</t>
-  </si>
-  <si>
-    <t>B-2 (11)</t>
-  </si>
-  <si>
-    <t>C-1 (12)</t>
-  </si>
-  <si>
-    <t>C#-1 (13)</t>
-  </si>
-  <si>
-    <t>D-1 (14)</t>
-  </si>
-  <si>
-    <t>D#-1 (15)</t>
-  </si>
-  <si>
-    <t>E-1 (16)</t>
-  </si>
-  <si>
-    <t>F-1 (17)</t>
-  </si>
-  <si>
-    <t>F#-1 (18)</t>
-  </si>
-  <si>
-    <t>G-1 (19)</t>
-  </si>
-  <si>
-    <t>G#-1 (20)</t>
-  </si>
-  <si>
-    <t>A-1 (21)</t>
-  </si>
-  <si>
-    <t>A#-1 (22)</t>
-  </si>
-  <si>
-    <t>B-1 (23)</t>
-  </si>
-  <si>
-    <t>C0 (24)</t>
-  </si>
-  <si>
-    <t>C#0 (25)</t>
-  </si>
-  <si>
-    <t>D0 (26)</t>
-  </si>
-  <si>
-    <t>D#0 (27)</t>
-  </si>
-  <si>
-    <t>E0 (28)</t>
-  </si>
-  <si>
-    <t>F0 (29)</t>
-  </si>
-  <si>
-    <t>F#0 (30)</t>
-  </si>
-  <si>
-    <t>G0 (31)</t>
-  </si>
-  <si>
-    <t>G#0 (32)</t>
-  </si>
-  <si>
-    <t>A0 (33)</t>
-  </si>
-  <si>
-    <t>A#0 (34)</t>
-  </si>
-  <si>
-    <t>B0 (35)</t>
-  </si>
-  <si>
-    <t>C1 (36)</t>
-  </si>
-  <si>
-    <t>C#1 (37)</t>
-  </si>
-  <si>
-    <t>D1 (38)</t>
-  </si>
-  <si>
-    <t>D#1 (39)</t>
-  </si>
-  <si>
-    <t>E1 (40)</t>
-  </si>
-  <si>
-    <t>F1 (41)</t>
-  </si>
-  <si>
-    <t>F#1 (42)</t>
-  </si>
-  <si>
-    <t>G1 (43)</t>
-  </si>
-  <si>
-    <t>G#1 (44)</t>
-  </si>
-  <si>
-    <t>A1 (45)</t>
-  </si>
-  <si>
-    <t>A#1 (46)</t>
-  </si>
-  <si>
-    <t>B1 (47)</t>
-  </si>
-  <si>
-    <t>C2 (48)</t>
-  </si>
-  <si>
-    <t>C#2 (49)</t>
-  </si>
-  <si>
-    <t>D2 (50)</t>
-  </si>
-  <si>
-    <t>D#2 (51)</t>
-  </si>
-  <si>
-    <t>E2 (52)</t>
-  </si>
-  <si>
-    <t>F2 (53)</t>
-  </si>
-  <si>
-    <t>F#2 (54)</t>
-  </si>
-  <si>
-    <t>G2 (55)</t>
-  </si>
-  <si>
-    <t>G#2 (56)</t>
-  </si>
-  <si>
-    <t>A2 (57)</t>
-  </si>
-  <si>
-    <t>A#2 (58)</t>
-  </si>
-  <si>
-    <t>B2 (59)</t>
-  </si>
-  <si>
-    <t>C3 (60)</t>
-  </si>
-  <si>
-    <t>C#3 (61)</t>
-  </si>
-  <si>
-    <t>D3 (62)</t>
-  </si>
-  <si>
-    <t>D#3 (63)</t>
-  </si>
-  <si>
-    <t>E3 (64)</t>
-  </si>
-  <si>
-    <t>F3 (65)</t>
-  </si>
-  <si>
-    <t>F#3 (66)</t>
-  </si>
-  <si>
-    <t>G3 (67)</t>
-  </si>
-  <si>
-    <t>G#3 (68)</t>
-  </si>
-  <si>
-    <t>A3 (69)</t>
-  </si>
-  <si>
-    <t>A#3 (70)</t>
-  </si>
-  <si>
-    <t>B3 (71)</t>
-  </si>
-  <si>
-    <t>C4 (72)</t>
-  </si>
-  <si>
-    <t>C#4 (73)</t>
-  </si>
-  <si>
-    <t>D4 (74)</t>
-  </si>
-  <si>
-    <t>D#4 (75)</t>
-  </si>
-  <si>
-    <t>E4 (76)</t>
-  </si>
-  <si>
-    <t>F4 (77)</t>
-  </si>
-  <si>
-    <t>F#4 (78)</t>
-  </si>
-  <si>
-    <t>G4 (79)</t>
-  </si>
-  <si>
-    <t>G#4 (80)</t>
-  </si>
-  <si>
-    <t>A4 (81)</t>
-  </si>
-  <si>
-    <t>A#4 (82)</t>
-  </si>
-  <si>
-    <t>B4 (83)</t>
-  </si>
-  <si>
-    <t>C5 (84)</t>
-  </si>
-  <si>
-    <t>C#5 (85)</t>
-  </si>
-  <si>
-    <t>D5 (86)</t>
-  </si>
-  <si>
-    <t>D#5 (87)</t>
-  </si>
-  <si>
-    <t>E5 (88)</t>
-  </si>
-  <si>
-    <t>F5 (89)</t>
-  </si>
-  <si>
-    <t>F#5 (90)</t>
-  </si>
-  <si>
-    <t>G5 (91)</t>
-  </si>
-  <si>
-    <t>G#5 (92)</t>
-  </si>
-  <si>
-    <t>A5 (93)</t>
-  </si>
-  <si>
-    <t>A#5 (94)</t>
-  </si>
-  <si>
-    <t>B5 (95)</t>
-  </si>
-  <si>
-    <t>C6 (96)</t>
-  </si>
-  <si>
-    <t>C#6 (97)</t>
-  </si>
-  <si>
-    <t>D6 (98)</t>
-  </si>
-  <si>
-    <t>D#6 (99)</t>
-  </si>
-  <si>
-    <t>E6 (100)</t>
-  </si>
-  <si>
-    <t>F6 (101)</t>
-  </si>
-  <si>
-    <t>F#6 (102)</t>
-  </si>
-  <si>
-    <t>G6 (103)</t>
-  </si>
-  <si>
-    <t>G#6 (104)</t>
-  </si>
-  <si>
-    <t>A6 (105)</t>
-  </si>
-  <si>
-    <t>A#6 (106)</t>
-  </si>
-  <si>
-    <t>B6 (107)</t>
-  </si>
-  <si>
-    <t>C7 (108)</t>
-  </si>
-  <si>
-    <t>C#7 (109)</t>
-  </si>
-  <si>
-    <t>D7 (110)</t>
-  </si>
-  <si>
-    <t>D#7 (111)</t>
-  </si>
-  <si>
-    <t>E7 (112)</t>
-  </si>
-  <si>
-    <t>F7 (113)</t>
-  </si>
-  <si>
-    <t>F#7 (114)</t>
-  </si>
-  <si>
-    <t>G7 (115)</t>
-  </si>
-  <si>
-    <t>G#7 (116)</t>
-  </si>
-  <si>
-    <t>A7 (117)</t>
-  </si>
-  <si>
-    <t>A#7 (118)</t>
-  </si>
-  <si>
-    <t>B7 (119)</t>
-  </si>
-  <si>
-    <t>C8 (120)</t>
-  </si>
-  <si>
-    <t>C#8 (121)</t>
-  </si>
-  <si>
-    <t>D8 (122)</t>
-  </si>
-  <si>
-    <t>D#8 (123)</t>
-  </si>
-  <si>
-    <t>E8 (124)</t>
-  </si>
-  <si>
-    <t>F8 (125)</t>
-  </si>
-  <si>
-    <t>F#8 (126)</t>
-  </si>
-  <si>
-    <t>G8 (127)</t>
   </si>
   <si>
     <t>MIDI Notes(Whole)</t>
@@ -619,10 +390,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Version 0.8</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Articulation Name</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -633,13 +400,405 @@
   <si>
     <t>PC Data1</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C-2</t>
+  </si>
+  <si>
+    <t>C#-2</t>
+  </si>
+  <si>
+    <t>D-2</t>
+  </si>
+  <si>
+    <t>D#-2</t>
+  </si>
+  <si>
+    <t>E-2</t>
+  </si>
+  <si>
+    <t>F-2</t>
+  </si>
+  <si>
+    <t>F#-2</t>
+  </si>
+  <si>
+    <t>G-2</t>
+  </si>
+  <si>
+    <t>G#-2</t>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>A#-2</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t>C-1</t>
+  </si>
+  <si>
+    <t>C#-1</t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D#-1</t>
+  </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>F-1</t>
+  </si>
+  <si>
+    <t>F#-1</t>
+  </si>
+  <si>
+    <t>G-1</t>
+  </si>
+  <si>
+    <t>G#-1</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>A#-1</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C#0</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D#0</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F#0</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>G#0</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A#0</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C#1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D#1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F#1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G#1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A#1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D#2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F#2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G#2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A#2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D#3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F#3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G#3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A#3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C#4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D#4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F#4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G#4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A#4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C#5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D#5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F#5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G#5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A#5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C#6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D#6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F#6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G#6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A#6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C#7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D#7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F#7</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G#7</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A#7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C#8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D#8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F#8</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>Colot</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Skip converting if Sheet name contains 'Ignore'</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -690,8 +849,22 @@
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +929,48 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -828,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1124,57 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,10 +1322,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,10 +1611,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -1363,7 +1625,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1387,10 +1649,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -3087,11 +3349,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H131" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
@@ -3111,7 +3369,13 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$D$3:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B131</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$4</xm:f>
@@ -3123,7 +3387,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$D$2:$D$6</xm:f>
+            <xm:f>'DO NOT MODIFY!'!$E$2:$E$6</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -3139,6 +3403,12 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4C299EF-4A0E-4945-A71E-A1867543E130}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$D$2:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3146,11 +3416,1859 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D6AFF-C43D-CA40-BE3D-9B4D6A050357}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:K131"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
+    <col min="4" max="5" width="17.1640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
+    <col min="12" max="1025" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="41">
+        <v>100</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+      <c r="H5" s="41">
+        <v>23</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="47">
+      <c r="A10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="40"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="40"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="40"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="40"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="40"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="40"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="40"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="40"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="40"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="40"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="40"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="40"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="40"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="40"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="40"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="40"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="40"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="40"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="40"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="40"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="40"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="40"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="40"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="40"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="40"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="40"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="40"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="40"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="40"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="40"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="40"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="I4:J131" xr:uid="{E71C485A-5EDF-E04E-9365-F9BDB297A557}">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="F4:F131" xr:uid="{776C32F9-4F8B-2C4D-BDAC-36569D8B6729}">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H131" xr:uid="{98505A13-27F1-3C4D-86CB-1FFF8BAABC9A}">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C93D7E-3F46-5B4C-8FEC-6A75386E8F2D}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$D$2:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{2773EC91-9F19-2D41-BBF7-10A65BCF12AA}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$B$2:$B$258</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E4:E131</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F40C312E-AD10-0A4B-9151-C1F4EC507B07}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D4:D131</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F9D8327-55C4-CD47-B7AB-C00737CFC150}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C4:C131</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65E6D838-D3EF-FE4B-AE34-099B3A4574C5}">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$D$3:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B131</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3158,1755 +5276,1920 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="1026" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1027" max="16384" width="8.83203125" style="4"/>
+    <col min="3" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="1027" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1028" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>144</v>
+    <row r="1" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="23"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="E7" s="23" t="s">
-        <v>19</v>
+      <c r="D7" s="5">
+        <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="E8" s="23" t="s">
-        <v>21</v>
+      <c r="D8" s="5">
+        <v>5</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="23" t="s">
-        <v>23</v>
+      <c r="D9" s="5">
+        <v>6</v>
       </c>
       <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="7"/>
-      <c r="E10" s="23" t="s">
-        <v>24</v>
+      <c r="D10" s="5">
+        <v>7</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="E12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="7"/>
-      <c r="E13" s="23" t="s">
-        <v>29</v>
+      <c r="D13" s="5">
+        <v>10</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="E14" s="23" t="s">
-        <v>31</v>
+      <c r="D14" s="5">
+        <v>11</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5">
+        <v>13</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5">
+        <v>14</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="F40" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="F52" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="F53" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="F54" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="F55" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="F56" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="F57" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="F58" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="F59" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="F60" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="F61" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="F62" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="F63" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="F64" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="F65" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="F66" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="F67" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="F68" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="F69" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="F70" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="F71" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="F72" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="F73" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="F74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="F75" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="F76" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G76" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="F77" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="F78" s="23">
+        <v>0</v>
+      </c>
+      <c r="G78" s="23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="F79" s="23">
+        <v>2</v>
+      </c>
+      <c r="G79" s="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="F80" s="23">
+        <v>4</v>
+      </c>
+      <c r="G80" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="F81" s="23">
+        <v>5</v>
+      </c>
+      <c r="G81" s="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="F82" s="23">
+        <v>7</v>
+      </c>
+      <c r="G82" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="F83" s="23">
+        <v>9</v>
+      </c>
+      <c r="G83" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="F84" s="23">
+        <v>11</v>
+      </c>
+      <c r="G84" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="F85" s="23">
+        <v>12</v>
+      </c>
+      <c r="G85" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="F86" s="23">
+        <v>14</v>
+      </c>
+      <c r="G86" s="23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="F87" s="23">
+        <v>16</v>
+      </c>
+      <c r="G87" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="F88" s="23">
+        <v>17</v>
+      </c>
+      <c r="G88" s="23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="F89" s="23">
+        <v>19</v>
+      </c>
+      <c r="G89" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="F90" s="23">
+        <v>21</v>
+      </c>
+      <c r="G90" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="F91" s="23">
+        <v>23</v>
+      </c>
+      <c r="G91" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="F92" s="23">
         <v>24</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="23" t="s">
+      <c r="G92" s="23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="F93" s="23">
+        <v>26</v>
+      </c>
+      <c r="G93" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="F94" s="23">
+        <v>28</v>
+      </c>
+      <c r="G94" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="F95" s="23">
+        <v>29</v>
+      </c>
+      <c r="G95" s="23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="F96" s="23">
+        <v>31</v>
+      </c>
+      <c r="G96" s="23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="F97" s="23">
         <v>33</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="E16" s="23" t="s">
+      <c r="G97" s="23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="F98" s="23">
         <v>35</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="E17" s="23" t="s">
+      <c r="G98" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="F99" s="23">
         <v>36</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="E18" s="23" t="s">
+      <c r="G99" s="23">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="F100" s="23">
         <v>38</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="E19" s="23" t="s">
+      <c r="G100" s="23">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="F101" s="23">
         <v>40</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="E20" s="23" t="s">
+      <c r="G101" s="23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="F102" s="23">
         <v>41</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="E21" s="23" t="s">
+      <c r="G102" s="23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="F103" s="23">
         <v>43</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="23" t="s">
+      <c r="G103" s="23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="F104" s="23">
         <v>45</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="E23" s="23" t="s">
+      <c r="G104" s="23">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="F105" s="23">
         <v>47</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="E24" s="23" t="s">
+      <c r="G105" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="F106" s="23">
         <v>48</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="E25" s="23" t="s">
+      <c r="G106" s="23">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="F107" s="23">
         <v>50</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="E26" s="23" t="s">
+      <c r="G107" s="23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="F108" s="23">
         <v>52</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="E27" s="23" t="s">
+      <c r="G108" s="23">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="F109" s="23">
         <v>53</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="E28" s="23" t="s">
+      <c r="G109" s="22"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="F110" s="23">
         <v>55</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="E29" s="23" t="s">
+      <c r="G110" s="22"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="F111" s="23">
         <v>57</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="E30" s="23" t="s">
+      <c r="G111" s="22"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="F112" s="23">
         <v>59</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="E31" s="23" t="s">
+      <c r="G112" s="22"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="F113" s="23">
         <v>60</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="E32" s="23" t="s">
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="F114" s="23">
         <v>62</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="E33" s="23" t="s">
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="F115" s="23">
         <v>64</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="E34" s="23" t="s">
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="F116" s="23">
         <v>65</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="E35" s="23" t="s">
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="F117" s="23">
         <v>67</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="E36" s="23" t="s">
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="F118" s="23">
         <v>69</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="E37" s="23" t="s">
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="F119" s="23">
         <v>71</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="E38" s="23" t="s">
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="F120" s="23">
         <v>72</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="E39" s="23" t="s">
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="F121" s="23">
         <v>74</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="E40" s="23" t="s">
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="F122" s="23">
         <v>76</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="E41" s="23" t="s">
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="F123" s="23">
         <v>77</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="E42" s="23" t="s">
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="F124" s="23">
         <v>79</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="E43" s="23" t="s">
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="F125" s="23">
         <v>81</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="E44" s="23" t="s">
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="F126" s="23">
         <v>83</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="E45" s="23" t="s">
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="F127" s="23">
         <v>84</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="E46" s="23" t="s">
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="F128" s="23">
         <v>86</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="E47" s="23" t="s">
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="F129" s="23">
         <v>88</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="E48" s="23" t="s">
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F130" s="23">
         <v>89</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="E49" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="E50" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="E51" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="E52" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="E53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="E54" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="E55" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="E56" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="E57" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="E58" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="E59" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="E60" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="E61" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="E62" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F62" s="23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="E63" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="E64" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="E65" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="E66" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="E67" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="E68" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="E69" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="E70" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="E71" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="23">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="E72" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="E73" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" s="23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="E74" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="E75" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="E76" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" s="23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="E77" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="E78" s="23">
-        <v>0</v>
-      </c>
-      <c r="F78" s="23">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="E79" s="23">
-        <v>2</v>
-      </c>
-      <c r="F79" s="23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="E80" s="23">
-        <v>4</v>
-      </c>
-      <c r="F80" s="23">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="E81" s="23">
-        <v>5</v>
-      </c>
-      <c r="F81" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="E82" s="23">
-        <v>7</v>
-      </c>
-      <c r="F82" s="23">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="E83" s="23">
-        <v>9</v>
-      </c>
-      <c r="F83" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="E84" s="23">
-        <v>11</v>
-      </c>
-      <c r="F84" s="23">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="E85" s="23">
-        <v>12</v>
-      </c>
-      <c r="F85" s="23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="E86" s="23">
-        <v>14</v>
-      </c>
-      <c r="F86" s="23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="E87" s="23">
-        <v>16</v>
-      </c>
-      <c r="F87" s="23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="E88" s="23">
-        <v>17</v>
-      </c>
-      <c r="F88" s="23">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="E89" s="23">
-        <v>19</v>
-      </c>
-      <c r="F89" s="23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="E90" s="23">
-        <v>21</v>
-      </c>
-      <c r="F90" s="23">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="E91" s="23">
-        <v>23</v>
-      </c>
-      <c r="F91" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="E92" s="23">
-        <v>24</v>
-      </c>
-      <c r="F92" s="23">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="E93" s="23">
-        <v>26</v>
-      </c>
-      <c r="F93" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="E94" s="23">
-        <v>28</v>
-      </c>
-      <c r="F94" s="23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="E95" s="23">
-        <v>29</v>
-      </c>
-      <c r="F95" s="23">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="E96" s="23">
-        <v>31</v>
-      </c>
-      <c r="F96" s="23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="E97" s="23">
-        <v>33</v>
-      </c>
-      <c r="F97" s="23">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="E98" s="23">
-        <v>35</v>
-      </c>
-      <c r="F98" s="23">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="E99" s="23">
-        <v>36</v>
-      </c>
-      <c r="F99" s="23">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="E100" s="23">
-        <v>38</v>
-      </c>
-      <c r="F100" s="23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="E101" s="23">
-        <v>40</v>
-      </c>
-      <c r="F101" s="23">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="E102" s="23">
-        <v>41</v>
-      </c>
-      <c r="F102" s="23">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="E103" s="23">
-        <v>43</v>
-      </c>
-      <c r="F103" s="23">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="E104" s="23">
-        <v>45</v>
-      </c>
-      <c r="F104" s="23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="E105" s="23">
-        <v>47</v>
-      </c>
-      <c r="F105" s="23">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="E106" s="23">
-        <v>48</v>
-      </c>
-      <c r="F106" s="23">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="E107" s="23">
-        <v>50</v>
-      </c>
-      <c r="F107" s="23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="E108" s="23">
-        <v>52</v>
-      </c>
-      <c r="F108" s="23">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="E109" s="23">
-        <v>53</v>
-      </c>
-      <c r="F109" s="22"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="E110" s="23">
-        <v>55</v>
-      </c>
-      <c r="F110" s="22"/>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="E111" s="23">
-        <v>57</v>
-      </c>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="E112" s="23">
-        <v>59</v>
-      </c>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="E113" s="23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="E114" s="23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="E115" s="23">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="E116" s="23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="E117" s="23">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="E118" s="23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="E119" s="23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="E120" s="23">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="E121" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="E122" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="E123" s="23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="E124" s="23">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="E125" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="E126" s="23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="E127" s="23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="E128" s="23">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="E129" s="23">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="23">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
+    </row>
+    <row r="131" spans="2:6">
       <c r="B131" s="1">
         <v>0</v>
       </c>
-      <c r="E131" s="23">
+      <c r="F131" s="23">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:6">
       <c r="B132" s="1">
         <v>1</v>
       </c>
-      <c r="E132" s="23">
+      <c r="F132" s="23">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:6">
       <c r="B133" s="1">
         <v>2</v>
       </c>
-      <c r="E133" s="23">
+      <c r="F133" s="23">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="2:6">
       <c r="B134" s="1">
         <v>3</v>
       </c>
-      <c r="E134" s="23">
+      <c r="F134" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:6">
       <c r="B135" s="1">
         <v>4</v>
       </c>
-      <c r="E135" s="23">
+      <c r="F135" s="23">
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:6">
       <c r="B136" s="1">
         <v>5</v>
       </c>
-      <c r="E136" s="23">
+      <c r="F136" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:6">
       <c r="B137" s="1">
         <v>6</v>
       </c>
-      <c r="E137" s="23">
+      <c r="F137" s="23">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:6">
       <c r="B138" s="1">
         <v>7</v>
       </c>
-      <c r="E138" s="23">
+      <c r="F138" s="23">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:6">
       <c r="B139" s="1">
         <v>8</v>
       </c>
-      <c r="E139" s="23">
+      <c r="F139" s="23">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:6">
       <c r="B140" s="1">
         <v>9</v>
       </c>
-      <c r="E140" s="23">
+      <c r="F140" s="23">
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:6">
       <c r="B141" s="1">
         <v>10</v>
       </c>
-      <c r="E141" s="23">
+      <c r="F141" s="23">
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:6">
       <c r="B142" s="1">
         <v>11</v>
       </c>
-      <c r="E142" s="23">
+      <c r="F142" s="23">
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="2:5">
+    <row r="143" spans="2:6">
       <c r="B143" s="1">
         <v>12</v>
       </c>
-      <c r="E143" s="23">
+      <c r="F143" s="23">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:6">
       <c r="B144" s="1">
         <v>13</v>
       </c>
-      <c r="E144" s="23">
+      <c r="F144" s="23">
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:6">
       <c r="B145" s="1">
         <v>14</v>
       </c>
-      <c r="E145" s="23">
+      <c r="F145" s="23">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:6">
       <c r="B146" s="1">
         <v>15</v>
       </c>
-      <c r="E146" s="23">
+      <c r="F146" s="23">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:6">
       <c r="B147" s="1">
         <v>16</v>
       </c>
-      <c r="E147" s="23">
+      <c r="F147" s="23">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:6">
       <c r="B148" s="1">
         <v>17</v>
       </c>
-      <c r="E148" s="23">
+      <c r="F148" s="23">
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:6">
       <c r="B149" s="1">
         <v>18</v>
       </c>
-      <c r="E149" s="23">
+      <c r="F149" s="23">
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:6">
       <c r="B150" s="1">
         <v>19</v>
       </c>
-      <c r="E150" s="23">
+      <c r="F150" s="23">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:6">
       <c r="B151" s="1">
         <v>20</v>
       </c>
-      <c r="E151" s="23">
+      <c r="F151" s="23">
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:6">
       <c r="B152" s="1">
         <v>21</v>
       </c>
-      <c r="E152" s="23">
+      <c r="F152" s="23">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:6">
       <c r="B153" s="1">
         <v>22</v>
       </c>
-      <c r="E153" s="22"/>
-    </row>
-    <row r="154" spans="2:5">
+      <c r="F153" s="22"/>
+    </row>
+    <row r="154" spans="2:6">
       <c r="B154" s="1">
         <v>23</v>
       </c>
-      <c r="E154" s="22"/>
-    </row>
-    <row r="155" spans="2:5">
+      <c r="F154" s="22"/>
+    </row>
+    <row r="155" spans="2:6">
       <c r="B155" s="1">
         <v>24</v>
       </c>
-      <c r="E155" s="22"/>
-    </row>
-    <row r="156" spans="2:5">
+      <c r="F155" s="22"/>
+    </row>
+    <row r="156" spans="2:6">
       <c r="B156" s="1">
         <v>25</v>
       </c>
-      <c r="E156" s="22"/>
-    </row>
-    <row r="157" spans="2:5">
+      <c r="F156" s="22"/>
+    </row>
+    <row r="157" spans="2:6">
       <c r="B157" s="1">
         <v>26</v>
       </c>
-      <c r="E157" s="22"/>
-    </row>
-    <row r="158" spans="2:5">
+      <c r="F157" s="22"/>
+    </row>
+    <row r="158" spans="2:6">
       <c r="B158" s="1">
         <v>27</v>
       </c>
-      <c r="E158" s="22"/>
-    </row>
-    <row r="159" spans="2:5">
+      <c r="F158" s="22"/>
+    </row>
+    <row r="159" spans="2:6">
       <c r="B159" s="1">
         <v>28</v>
       </c>
-      <c r="E159" s="22"/>
-    </row>
-    <row r="160" spans="2:5">
+      <c r="F159" s="22"/>
+    </row>
+    <row r="160" spans="2:6">
       <c r="B160" s="1">
         <v>29</v>
       </c>
-      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1">

--- a/Template Files/Template_ExpressionMap.xlsx
+++ b/Template Files/Template_ExpressionMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0EC7-DD4D-0945-A01C-F58B2CFC2173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF0752-E603-4D4C-B832-C81A187B7BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2380" windowWidth="24820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,12 +1119,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,12 +1126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1175,6 +1163,18 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,10 +1613,10 @@
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
       <c r="A2" s="20"/>
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>10</v>
@@ -3443,1754 +3443,1754 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="37">
         <v>0</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <v>100</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="37">
         <v>1</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="37">
         <v>23</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="47">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="40"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="40"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="40"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="40"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="40"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="40"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="40"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="40"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="40"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="40"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="40"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="4"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="40"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="4"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="40"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
       <c r="K82" s="4"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="40"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="4"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="40"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="40"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="40"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="40"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="40"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="40"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
       <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="40"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="40"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="40"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="40"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="40"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="40"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="40"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
       <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="40"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
       <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="40"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
       <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="40"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="40"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="40"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="40"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="40"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="40"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="40"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="40"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
       <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="40"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
       <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="40"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
       <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="40"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="40"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
       <c r="K112" s="4"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="40"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
       <c r="K113" s="4"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="40"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="40"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="4"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="40"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="40"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
       <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="40"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
       <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="40"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
       <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="40"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
       <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="40"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="40"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
       <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="40"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
       <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="40"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="40"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
       <c r="K125" s="4"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="40"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="40"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
       <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="40"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="40"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
       <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="40"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="40"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
       <c r="K131" s="4"/>
     </row>
   </sheetData>
@@ -5293,7 +5293,7 @@
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -5313,7 +5313,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
@@ -5327,8 +5327,8 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="28">
-        <v>1</v>
+      <c r="E3" s="26">
+        <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>20</v>
@@ -5347,8 +5347,8 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
-        <v>2</v>
+      <c r="E4" s="26">
+        <v>1</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>22</v>
@@ -5365,8 +5365,8 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
-        <v>3</v>
+      <c r="E5" s="26">
+        <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>24</v>
@@ -5383,8 +5383,8 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
-        <v>4</v>
+      <c r="E6" s="26">
+        <v>3</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>25</v>

--- a/Template Files/Template_ExpressionMap.xlsx
+++ b/Template Files/Template_ExpressionMap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF0752-E603-4D4C-B832-C81A187B7BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCB907-0530-48D8-8289-4785FFE73C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2380" windowWidth="24820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1800" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -136,6 +136,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">Used in supported file formats.
 </t>
@@ -145,6 +147,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>e.g. Cubase Expressionmap</t>
         </r>
@@ -157,6 +161,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">Used in supported file formats.
 </t>
@@ -166,6 +172,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>e.g. Cubase Expressionmap</t>
         </r>
@@ -295,6 +303,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">Used in supported file formats.
 </t>
@@ -304,6 +314,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>e.g. Cubase Expressionmap</t>
         </r>
@@ -316,6 +328,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">Used in supported file formats.
 </t>
@@ -325,6 +339,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>e.g. Cubase Expressionmap</t>
         </r>
@@ -786,12 +802,12 @@
     <t>G8</t>
   </si>
   <si>
-    <t>Colot</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Skip converting if Sheet name contains 'Ignore'</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -848,6 +864,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1595,18 +1613,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
-    <col min="12" max="1025" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="4"/>
+    <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
+    <col min="1026" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
@@ -3428,18 +3446,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
-    <col min="12" max="1025" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="4"/>
+    <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
+    <col min="1026" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
@@ -3605,9 +3623,9 @@
       <c r="J9" s="37"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="47">
+    <row r="10" spans="1:11" ht="45.75">
       <c r="A10" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -5274,16 +5292,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="1027" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1028" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="1027" width="9.875" style="4" customWidth="1"/>
+    <col min="1028" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1">
@@ -5297,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>

--- a/Template Files/Template_ExpressionMap.xlsx
+++ b/Template Files/Template_ExpressionMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCB907-0530-48D8-8289-4785FFE73C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1E5EE-DB90-4CB4-A3FF-2D2568C1AC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1800" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14">
         <v>100</v>
